--- a/data/trans_orig/P14A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E09710F-849E-414F-B1CC-3405B758EA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{302D643A-FB16-407C-8D42-7A8D0971A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CBD14D2-D981-4213-A783-94337402D031}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E07D13A-4115-4E75-B1E4-E0C0862571D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -144,37 +144,37 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>57,67%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>78,35%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -195,13 +195,13 @@
     <t>80,93%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>21,3%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>29,27%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>49,36%</t>
@@ -210,13 +210,13 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>78,7%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>70,73%</t>
+    <t>70,36%</t>
   </si>
   <si>
     <t>70,56%</t>
@@ -246,49 +246,49 @@
     <t>65,77%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>43,48%</t>
+    <t>39,32%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>60,68%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4239C1A5-9BFF-48A3-8BC0-D030CEC4A279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0DDE4E-938B-45E0-A362-FDB84C452C22}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1871,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124E09F5-6D0B-41B6-8B43-9B995386DFC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C580FE-AA91-42F3-871F-7D2182A41252}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{302D643A-FB16-407C-8D42-7A8D0971A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F81D03-A5D1-4163-BAE8-E316C3592D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E07D13A-4115-4E75-B1E4-E0C0862571D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17076161-4781-447A-9CE8-9310C13E74C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,43 +144,43 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>48,92%</t>
+    <t>48,07%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>51,08%</t>
+    <t>51,93%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>55,39%</t>
@@ -195,13 +195,13 @@
     <t>80,93%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>29,65%</t>
   </si>
   <si>
     <t>49,36%</t>
@@ -210,13 +210,13 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>78,7%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>70,36%</t>
+    <t>70,35%</t>
   </si>
   <si>
     <t>70,56%</t>
@@ -228,7 +228,7 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>17,41%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>29,44%</t>
@@ -240,55 +240,55 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>82,59%</t>
+    <t>83,21%</t>
   </si>
   <si>
     <t>65,77%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>39,32%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>60,68%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0DDE4E-938B-45E0-A362-FDB84C452C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7296FF05-5826-4D9D-8B64-7F53D71F91B4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1871,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C580FE-AA91-42F3-871F-7D2182A41252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7190FC2E-7FF2-4314-BE2D-AD1E14131232}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
